--- a/test_cases/TC and Defect.xlsx
+++ b/test_cases/TC and Defect.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fuckultad\testin\tpo\TestingAplicaciones-Smere-TPO\test_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b00242\Desktop\uade\testis\TestingAplicaciones-Smere-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31461D35-B86E-4080-9355-93A70263B77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Defect Report - PE-16 - DF-002" sheetId="5" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Defect Report - PE-53 DF-001" sheetId="6" r:id="rId3"/>
     <sheet name="Defect Report - PE-53 DF-002" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
   <si>
     <t>Title</t>
   </si>
@@ -53,9 +52,6 @@
     <t>Actual Behavior</t>
   </si>
   <si>
-    <t>The Page shows an error page with the text "Internal Server Error!"</t>
-  </si>
-  <si>
     <t>Incidence / Severity / Probability of reproduction</t>
   </si>
   <si>
@@ -125,61 +121,70 @@
     <t>When entering modify user page there is no goverment id field.</t>
   </si>
   <si>
+    <t>2- Navigate to modify user page</t>
+  </si>
+  <si>
+    <t>Goverment id field should be available to fill.</t>
+  </si>
+  <si>
+    <t>1- Open the application page http://127.0.0.1:5000/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open the application page http://127.0.0.1:5000/ </t>
+  </si>
+  <si>
+    <t>Affected User Story: PE-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low severity - Goverment id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA environment, http://127.0.0.1:5000/ </t>
+  </si>
+  <si>
+    <t>2- Navigate to change password page</t>
+  </si>
+  <si>
+    <t>Change password: allows you to change it to the current password</t>
+  </si>
+  <si>
+    <t>When changing to a new password it allows the user to change to the current one</t>
+  </si>
+  <si>
+    <t>User should get an error indicating the password they entered its the same as password they already have</t>
+  </si>
+  <si>
+    <t>Password is changed successfully</t>
+  </si>
+  <si>
+    <t>Low severity -</t>
+  </si>
+  <si>
+    <t>4- Use pasword pass</t>
+  </si>
+  <si>
+    <t>5- Enter all test data</t>
+  </si>
+  <si>
+    <t>6- Click register</t>
+  </si>
+  <si>
+    <t>Government field does not exist in the form available in the modify page</t>
+  </si>
+  <si>
+    <t>3- Enter the password that the user logged in already has</t>
+  </si>
+  <si>
     <t>4- Enter all test data</t>
   </si>
   <si>
-    <t>5-Click register</t>
-  </si>
-  <si>
-    <t>2- Navigate to modify user page</t>
-  </si>
-  <si>
-    <t>Goverment id field should be available to fill.</t>
-  </si>
-  <si>
-    <t>1- Open the application page http://127.0.0.1:5000/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Open the application page http://127.0.0.1:5000/ </t>
-  </si>
-  <si>
-    <t>Affected User Story: PE-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low severity - Goverment id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QA environment, http://127.0.0.1:5000/ </t>
-  </si>
-  <si>
-    <t>2- Navigate to change password page</t>
-  </si>
-  <si>
-    <t>Change password: allows you to change it to the current password</t>
-  </si>
-  <si>
-    <t>When changing to a new password it allows the user to change to the current one</t>
-  </si>
-  <si>
-    <t>3-Enter all test data</t>
-  </si>
-  <si>
-    <t>User should get an error indicating the password they entered its the same as password they already have</t>
-  </si>
-  <si>
-    <t>4-Click save</t>
-  </si>
-  <si>
-    <t>Password is changed successfully</t>
-  </si>
-  <si>
-    <t>Low severity -</t>
+    <t>5- Click save</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,8 +452,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{C558A088-66ED-4D97-B86E-4769E988BE41}"/>
-    <cellStyle name="Note 2" xfId="2" xr:uid="{4BAC1941-5BF2-43E8-B9DC-8FEA0AFAB3F9}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Note 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -483,7 +488,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F309FAC4-04B1-FE20-527B-4ACF0C75FAD7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F309FAC4-04B1-FE20-527B-4ACF0C75FAD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -532,7 +537,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1C3D3A-6BDD-4E3C-898E-2E4CEEEF2C36}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1C3D3A-6BDD-4E3C-898E-2E4CEEEF2C36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -567,21 +572,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1743570</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>29070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2AB4527-4F8F-33F3-A30D-6DA428FB4A76}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2AB4527-4F8F-33F3-A30D-6DA428FB4A76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -611,21 +616,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3448049</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1743841</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>29341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAAC512-34A7-81B6-FDEA-871527C3B18D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAAC512-34A7-81B6-FDEA-871527C3B18D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,11 +955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E40FB43-5FA6-4026-84F0-4E69EEF35FFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -976,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,96 +989,100 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
+      <c r="B8" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="20" t="s">
-        <v>30</v>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B12" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B21" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="13"/>
+      <c r="B25" s="13"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J26" s="16"/>
@@ -1085,7 +1094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B4A5DB-4F42-4333-9CD7-A35841996344}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1103,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,19 +1128,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1139,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1147,51 +1156,51 @@
         <v>4</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="13"/>
     </row>
@@ -1203,11 +1212,127 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC312CC1-4D5C-4C97-84AB-0311DEA0CB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,123 +1346,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19C3A39-FFB1-416B-9AA1-6DCAB5934A9A}">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="63.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1345,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1353,91 +1362,95 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
+      <c r="B7" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="23" t="s">
-        <v>43</v>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B11" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B18" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="10" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="B22" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="13"/>
+      <c r="B24" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1447,12 +1460,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -1584,7 +1591,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1593,16 +1600,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875BB226-C4E2-4AE6-A544-7D7BC87C8F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B095399-6F01-4CC6-8EED-687EDC2E2529}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1620,10 +1624,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2EE936C-B9AA-4611-B9C6-F7F5AB53C5BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875BB226-C4E2-4AE6-A544-7D7BC87C8F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>